--- a/generated_tables/io_d_sub_sd_stamped_formed_high_temp_right_angle_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_stamped_formed_high_temp_right_angle_patterns.xlsx
@@ -19,19 +19,19 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>SERIES_IDENTIFIER</t>
+    <t>SERIES IDENTIFIER</t>
   </si>
   <si>
-    <t>ROHS_COMPLIANT</t>
+    <t>ROHS COMPLIANT</t>
   </si>
   <si>
-    <t>SHELL_SIZE</t>
+    <t>SHELL SIZE</t>
   </si>
   <si>
-    <t>CONTACT_TYPE</t>
+    <t>CONTACT TYPE</t>
   </si>
   <si>
-    <t>MOUNTING_PLATING</t>
+    <t>MOUNTING PLATING</t>
   </si>
   <si>
     <t>OPTIONS</t>
@@ -40,7 +40,7 @@
     <t>PACKAGING</t>
   </si>
   <si>
-    <t>CONTACT_PLATING</t>
+    <t>CONTACT PLATING</t>
   </si>
   <si>
     <t>L17 HT E P P P P</t>
